--- a/YSteam開発資料まとめ/設計資料/設計書12日までに/products/内部設計書_2_2_問題画面_sono.xlsx
+++ b/YSteam開発資料まとめ/設計資料/設計書12日までに/products/内部設計書_2_2_問題画面_sono.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書12日までに\products\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計資料\設計書12日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7148D867-8C6D-42AE-9104-7D4B33684242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D81951-27B3-4239-A9DA-A3D8D6AB174D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2218,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AS64" sqref="AS64"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
